--- a/XLSX/EMP.xlsx
+++ b/XLSX/EMP.xlsx
@@ -1,29 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\sqlProject\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FD37F4-8559-4FCD-BEBD-687C26B2746A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9027282-088A-47C8-9DA2-C1D1FA25DA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21825" yWindow="-13410" windowWidth="10980" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25620" yWindow="-12960" windowWidth="10140" windowHeight="9645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMP" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMP!$A$1:$H$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sheet4 (2)'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$A$3:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="40">
   <si>
     <t>EMPNO</t>
   </si>
@@ -101,6 +121,51 @@
   </si>
   <si>
     <t>MILLER</t>
+  </si>
+  <si>
+    <t>DNAME</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>RESEARCH</t>
+  </si>
+  <si>
+    <t>DALLAS</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>CHICAGO</t>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+  </si>
+  <si>
+    <t>BOSTON</t>
+  </si>
+  <si>
+    <t>EMP 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPT 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>LOSAL</t>
+  </si>
+  <si>
+    <t>HISAL</t>
+  </si>
+  <si>
+    <t>SALGRADE 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -130,12 +195,72 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +285,68 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -474,11 +661,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -521,100 +709,100 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>7369</v>
+        <v>7782</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
-        <v>7902</v>
+        <v>7839</v>
       </c>
       <c r="E2" s="2">
-        <v>29572</v>
+        <v>29746</v>
       </c>
       <c r="F2" s="1">
-        <v>800</v>
+        <v>2450</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>7499</v>
+        <v>7839</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7698</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>29637</v>
+        <v>29907</v>
       </c>
       <c r="F3" s="1">
-        <v>1600</v>
-      </c>
-      <c r="G3" s="1">
-        <v>300</v>
+        <v>5000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>7521</v>
+        <v>7934</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>7698</v>
+        <v>7782</v>
       </c>
       <c r="E4" s="2">
-        <v>29639</v>
+        <v>29974</v>
       </c>
       <c r="F4" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G4" s="1">
-        <v>500</v>
+        <v>1300</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
       <c r="H4" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>7566</v>
+        <v>7369</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>7839</v>
+        <v>7902</v>
       </c>
       <c r="E5" s="2">
-        <v>29678</v>
+        <v>29572</v>
       </c>
       <c r="F5" s="1">
-        <v>2975</v>
+        <v>800</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -625,114 +813,114 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>7654</v>
+        <v>7566</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>7698</v>
+        <v>7839</v>
       </c>
       <c r="E6" s="2">
-        <v>29857</v>
+        <v>29678</v>
       </c>
       <c r="F6" s="1">
-        <v>1250</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1400</v>
+        <v>2975</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>7698</v>
+        <v>7902</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
-        <v>7839</v>
+        <v>7566</v>
       </c>
       <c r="E7" s="2">
-        <v>29707</v>
+        <v>29923</v>
       </c>
       <c r="F7" s="1">
-        <v>2850</v>
+        <v>3000</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>7782</v>
+        <v>7499</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
-        <v>7839</v>
+        <v>7698</v>
       </c>
       <c r="E8" s="2">
-        <v>29746</v>
+        <v>29637</v>
       </c>
       <c r="F8" s="1">
-        <v>2450</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
+        <v>1600</v>
+      </c>
+      <c r="G8" s="1">
+        <v>300</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>7839</v>
+        <v>7521</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7698</v>
       </c>
       <c r="E9" s="2">
-        <v>29907</v>
+        <v>29639</v>
       </c>
       <c r="F9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
+        <v>1250</v>
+      </c>
+      <c r="G9" s="1">
+        <v>500</v>
       </c>
       <c r="H9" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>7844</v>
+        <v>7654</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -741,13 +929,13 @@
         <v>7698</v>
       </c>
       <c r="E10" s="2">
-        <v>29837</v>
+        <v>29857</v>
       </c>
       <c r="F10" s="1">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H10" s="1">
         <v>30</v>
@@ -755,22 +943,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>7900</v>
+        <v>7698</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>7698</v>
+        <v>7839</v>
       </c>
       <c r="E11" s="2">
-        <v>29923</v>
+        <v>29707</v>
       </c>
       <c r="F11" s="1">
-        <v>950</v>
+        <v>2850</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -781,64 +969,2763 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>7902</v>
+        <v>7844</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
-        <v>7566</v>
+        <v>7698</v>
       </c>
       <c r="E12" s="2">
-        <v>29923</v>
+        <v>29837</v>
       </c>
       <c r="F12" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
+        <v>1500</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>7934</v>
+        <v>7900</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>7782</v>
+        <v>7698</v>
       </c>
       <c r="E13" s="2">
-        <v>29974</v>
+        <v>29923</v>
       </c>
       <c r="F13" s="1">
-        <v>1300</v>
+        <v>950</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H13">
-      <sortCondition ref="A1:A13"/>
+      <sortCondition ref="H1:H13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ADE7F0-7368-4753-A9E1-BAC194791762}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="A17:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" customWidth="1"/>
+    <col min="14" max="14" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="J1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>7782</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7839</v>
+      </c>
+      <c r="E3" s="2">
+        <v>29746</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2450</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>7839</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>29907</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>7934</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7782</v>
+      </c>
+      <c r="E5" s="2">
+        <v>29974</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
+        <v>7369</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7902</v>
+      </c>
+      <c r="E6" s="5">
+        <v>29572</v>
+      </c>
+      <c r="F6" s="3">
+        <v>800</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3">
+        <v>7566</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7839</v>
+      </c>
+      <c r="E7" s="5">
+        <v>29678</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2975</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
+        <v>7902</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7566</v>
+      </c>
+      <c r="E8" s="5">
+        <v>29923</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3">
+        <v>7499</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E9" s="5">
+        <v>29637</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>7521</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E10" s="5">
+        <v>29639</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G10" s="3">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>7654</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E11" s="5">
+        <v>29857</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H11" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>7698</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7839</v>
+      </c>
+      <c r="E12" s="5">
+        <v>29707</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2850</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>7844</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E13" s="5">
+        <v>29837</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>7900</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7698</v>
+      </c>
+      <c r="E14" s="5">
+        <v>29923</v>
+      </c>
+      <c r="F14" s="3">
+        <v>950</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>7782</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7839</v>
+      </c>
+      <c r="E19" s="5">
+        <v>29746</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2450</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9">
+        <v>7839</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10">
+        <v>29907</v>
+      </c>
+      <c r="F20" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="9">
+        <v>10</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3">
+        <v>30</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9">
+        <v>7934</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9">
+        <v>7782</v>
+      </c>
+      <c r="E21" s="10">
+        <v>29974</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1300</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="9">
+        <v>10</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3">
+        <v>40</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9">
+        <v>7369</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9">
+        <v>7902</v>
+      </c>
+      <c r="E22" s="10">
+        <v>29572</v>
+      </c>
+      <c r="F22" s="9">
+        <v>800</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="9">
+        <v>20</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9">
+        <v>7566</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="9">
+        <v>7839</v>
+      </c>
+      <c r="E23" s="10">
+        <v>29678</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2975</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="9">
+        <v>20</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9">
+        <v>7902</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="9">
+        <v>7566</v>
+      </c>
+      <c r="E24" s="10">
+        <v>29923</v>
+      </c>
+      <c r="F24" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9">
+        <v>7499</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="9">
+        <v>7698</v>
+      </c>
+      <c r="E25" s="10">
+        <v>29637</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1600</v>
+      </c>
+      <c r="G25" s="9">
+        <v>300</v>
+      </c>
+      <c r="H25" s="9">
+        <v>30</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9">
+        <v>7521</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9">
+        <v>7698</v>
+      </c>
+      <c r="E26" s="10">
+        <v>29639</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1250</v>
+      </c>
+      <c r="G26" s="9">
+        <v>500</v>
+      </c>
+      <c r="H26" s="9">
+        <v>30</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="9">
+        <v>7654</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="9">
+        <v>7698</v>
+      </c>
+      <c r="E27" s="10">
+        <v>29857</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1250</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1400</v>
+      </c>
+      <c r="H27" s="9">
+        <v>30</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9">
+        <v>7698</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="9">
+        <v>7839</v>
+      </c>
+      <c r="E28" s="10">
+        <v>29707</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2850</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="9">
+        <v>30</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="9">
+        <v>7844</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="9">
+        <v>7698</v>
+      </c>
+      <c r="E29" s="10">
+        <v>29837</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1500</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>30</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="9">
+        <v>7900</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9">
+        <v>7698</v>
+      </c>
+      <c r="E30" s="10">
+        <v>29923</v>
+      </c>
+      <c r="F30" s="9">
+        <v>950</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="9">
+        <v>30</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A32:H32"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032F6CCF-F4BE-4599-8D72-B7AC854624A2}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2450</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>700</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1201</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1401</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13">
+        <v>800</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2001</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2975</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3001</v>
+      </c>
+      <c r="G7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1600</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1250</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1250</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2850</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="13">
+        <v>950</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8733E07-8B42-4332-B0F0-B08D666E6A2F}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="J1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9">
+        <v>7782</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="21">
+        <v>7839</v>
+      </c>
+      <c r="E3" s="10">
+        <v>29746</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2450</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="21">
+        <v>7782</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="9">
+        <v>7839</v>
+      </c>
+      <c r="N3" s="10">
+        <v>29746</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2450</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="9">
+        <v>7839</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
+        <v>29907</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="21">
+        <v>7839</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="10">
+        <v>29907</v>
+      </c>
+      <c r="O4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="9">
+        <v>7934</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21">
+        <v>7782</v>
+      </c>
+      <c r="E5" s="10">
+        <v>29974</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1300</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9">
+        <v>10</v>
+      </c>
+      <c r="J5" s="21">
+        <v>7934</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="9">
+        <v>7782</v>
+      </c>
+      <c r="N5" s="10">
+        <v>29974</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1300</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="9">
+        <v>7369</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21">
+        <v>7902</v>
+      </c>
+      <c r="E6" s="10">
+        <v>29572</v>
+      </c>
+      <c r="F6" s="9">
+        <v>800</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9">
+        <v>20</v>
+      </c>
+      <c r="J6" s="21">
+        <v>7369</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="9">
+        <v>7902</v>
+      </c>
+      <c r="N6" s="10">
+        <v>29572</v>
+      </c>
+      <c r="O6" s="9">
+        <v>800</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="9">
+        <v>7566</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="21">
+        <v>7839</v>
+      </c>
+      <c r="E7" s="10">
+        <v>29678</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2975</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9">
+        <v>20</v>
+      </c>
+      <c r="J7" s="21">
+        <v>7566</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="9">
+        <v>7839</v>
+      </c>
+      <c r="N7" s="10">
+        <v>29678</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2975</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="9">
+        <v>7902</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="21">
+        <v>7566</v>
+      </c>
+      <c r="E8" s="10">
+        <v>29923</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9">
+        <v>20</v>
+      </c>
+      <c r="J8" s="21">
+        <v>7902</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="9">
+        <v>7566</v>
+      </c>
+      <c r="N8" s="10">
+        <v>29923</v>
+      </c>
+      <c r="O8" s="9">
+        <v>3000</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="9">
+        <v>7499</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E9" s="10">
+        <v>29637</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1600</v>
+      </c>
+      <c r="G9" s="9">
+        <v>300</v>
+      </c>
+      <c r="H9" s="9">
+        <v>30</v>
+      </c>
+      <c r="J9" s="21">
+        <v>7499</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="9">
+        <v>7698</v>
+      </c>
+      <c r="N9" s="10">
+        <v>29637</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1600</v>
+      </c>
+      <c r="P9" s="9">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="9">
+        <v>7521</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E10" s="10">
+        <v>29639</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1250</v>
+      </c>
+      <c r="G10" s="9">
+        <v>500</v>
+      </c>
+      <c r="H10" s="9">
+        <v>30</v>
+      </c>
+      <c r="J10" s="21">
+        <v>7521</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="9">
+        <v>7698</v>
+      </c>
+      <c r="N10" s="10">
+        <v>29639</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1250</v>
+      </c>
+      <c r="P10" s="9">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="9">
+        <v>7654</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E11" s="10">
+        <v>29857</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1250</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1400</v>
+      </c>
+      <c r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="J11" s="21">
+        <v>7654</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="9">
+        <v>7698</v>
+      </c>
+      <c r="N11" s="10">
+        <v>29857</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1250</v>
+      </c>
+      <c r="P11" s="9">
+        <v>1400</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9">
+        <v>7698</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21">
+        <v>7839</v>
+      </c>
+      <c r="E12" s="10">
+        <v>29707</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2850</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9">
+        <v>30</v>
+      </c>
+      <c r="J12" s="21">
+        <v>7698</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="9">
+        <v>7839</v>
+      </c>
+      <c r="N12" s="10">
+        <v>29707</v>
+      </c>
+      <c r="O12" s="9">
+        <v>2850</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9">
+        <v>7844</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E13" s="10">
+        <v>29837</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>30</v>
+      </c>
+      <c r="J13" s="21">
+        <v>7844</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="9">
+        <v>7698</v>
+      </c>
+      <c r="N13" s="10">
+        <v>29837</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1500</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="9">
+        <v>7900</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E14" s="10">
+        <v>29923</v>
+      </c>
+      <c r="F14" s="9">
+        <v>950</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9">
+        <v>30</v>
+      </c>
+      <c r="J14" s="21">
+        <v>7900</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="9">
+        <v>7698</v>
+      </c>
+      <c r="N14" s="10">
+        <v>29923</v>
+      </c>
+      <c r="O14" s="9">
+        <v>950</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D978C4B3-3C40-4E3F-AD4A-4D002BAB6550}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="6"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21">
+        <v>7839</v>
+      </c>
+      <c r="E3" s="21">
+        <v>7782</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="21">
+        <v>7839</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="21">
+        <v>7782</v>
+      </c>
+      <c r="E5" s="21">
+        <v>7934</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21">
+        <v>7902</v>
+      </c>
+      <c r="E6" s="21">
+        <v>7369</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="21">
+        <v>7839</v>
+      </c>
+      <c r="E7" s="21">
+        <v>7566</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="21">
+        <v>7566</v>
+      </c>
+      <c r="E8" s="21">
+        <v>7902</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E9" s="21">
+        <v>7499</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E10" s="21">
+        <v>7521</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E11" s="21">
+        <v>7654</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="21">
+        <v>7839</v>
+      </c>
+      <c r="E12" s="21">
+        <v>7698</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E13" s="21">
+        <v>7844</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E14" s="21">
+        <v>7900</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3E3910-447D-444F-BDDA-27D2FC74444B}">
+  <dimension ref="A2:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="21">
+        <v>7566</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="21">
+        <v>7902</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="21">
+        <v>7499</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="21">
+        <v>7521</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="21">
+        <v>7654</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="21">
+        <v>7844</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21">
+        <v>7900</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="21">
+        <v>7782</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="21">
+        <v>7934</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="21">
+        <v>7839</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="21">
+        <v>7782</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="21">
+        <v>7839</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="21">
+        <v>7566</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="21">
+        <v>7839</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="21">
+        <v>7902</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="21">
+        <v>7369</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="21">
+        <v>7839</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="21">
+        <v>7566</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="21">
+        <v>7902</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="21">
+        <v>7499</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="21">
+        <v>7521</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="21">
+        <v>7654</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="21">
+        <v>7844</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="21">
+        <v>7698</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="21">
+        <v>7900</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21">
+        <v>7782</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="21">
+        <v>7934</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="21">
+        <v>7839</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="21">
+        <v>7782</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="21">
+        <v>7839</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="21">
+        <v>7566</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="21">
+        <v>7839</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="21">
+        <v>7698</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="21">
+        <v>7902</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="21">
+        <v>7369</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="21">
+        <v>7839</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>